--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N2">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O2">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P2">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q2">
-        <v>61.9561121406871</v>
+        <v>52.35853705661934</v>
       </c>
       <c r="R2">
-        <v>557.6050092661839</v>
+        <v>471.226833509574</v>
       </c>
       <c r="S2">
-        <v>0.0002013404144661759</v>
+        <v>0.0001274698787170681</v>
       </c>
       <c r="T2">
-        <v>0.000210833485471904</v>
+        <v>0.0001321102031976642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P3">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q3">
-        <v>407.0206924716521</v>
+        <v>488.5753044581047</v>
       </c>
       <c r="R3">
-        <v>3663.186232244869</v>
+        <v>4397.177740122942</v>
       </c>
       <c r="S3">
-        <v>0.001322705897562854</v>
+        <v>0.001189464761707962</v>
       </c>
       <c r="T3">
-        <v>0.001385070629643848</v>
+        <v>0.001232765206551179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N4">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O4">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P4">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q4">
-        <v>463.2133659480812</v>
+        <v>683.0432683804679</v>
       </c>
       <c r="R4">
-        <v>4168.920293532731</v>
+        <v>6147.389415424212</v>
       </c>
       <c r="S4">
-        <v>0.001505316713135267</v>
+        <v>0.001662908237577671</v>
       </c>
       <c r="T4">
-        <v>0.001576291427684208</v>
+        <v>0.001723443588214852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N5">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O5">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P5">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q5">
-        <v>162.8085458891375</v>
+        <v>81.39560332019001</v>
       </c>
       <c r="R5">
-        <v>976.8512753348249</v>
+        <v>488.37361992114</v>
       </c>
       <c r="S5">
-        <v>0.0005290832328781247</v>
+        <v>0.0001981622915114566</v>
       </c>
       <c r="T5">
-        <v>0.000369352777941419</v>
+        <v>0.0001369173688256227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H6">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I6">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J6">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N6">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O6">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P6">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q6">
-        <v>580.1737457168203</v>
+        <v>1014.027494467975</v>
       </c>
       <c r="R6">
-        <v>5221.563711451384</v>
+        <v>9126.247450211778</v>
       </c>
       <c r="S6">
-        <v>0.001885405949291429</v>
+        <v>0.002468708428499991</v>
       </c>
       <c r="T6">
-        <v>0.001974301626787178</v>
+        <v>0.002558577566774213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N7">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O7">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P7">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q7">
-        <v>326.8578781608568</v>
+        <v>230.1162461899471</v>
       </c>
       <c r="R7">
-        <v>2941.720903447711</v>
+        <v>2071.046215709524</v>
       </c>
       <c r="S7">
-        <v>0.001062198682044543</v>
+        <v>0.000560231275387615</v>
       </c>
       <c r="T7">
-        <v>0.001112280666516337</v>
+        <v>0.00058062554365037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P8">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q8">
         <v>2147.292903188477</v>
@@ -948,10 +948,10 @@
         <v>19325.63612869629</v>
       </c>
       <c r="S8">
-        <v>0.006978114477656626</v>
+        <v>0.005227708437374154</v>
       </c>
       <c r="T8">
-        <v>0.007307128085769675</v>
+        <v>0.005418014285967688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N9">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O9">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P9">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q9">
-        <v>2443.74497847339</v>
+        <v>3001.981371921368</v>
       </c>
       <c r="R9">
-        <v>21993.70480626051</v>
+        <v>27017.83234729231</v>
       </c>
       <c r="S9">
-        <v>0.007941502618792501</v>
+        <v>0.007308496816400968</v>
       </c>
       <c r="T9">
-        <v>0.008315939357945225</v>
+        <v>0.007574550232587072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N10">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O10">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P10">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q10">
-        <v>858.9185798963499</v>
+        <v>357.7344163026067</v>
       </c>
       <c r="R10">
-        <v>5153.511479378099</v>
+        <v>2146.40649781564</v>
       </c>
       <c r="S10">
-        <v>0.002791250401192661</v>
+        <v>0.0008709250720604211</v>
       </c>
       <c r="T10">
-        <v>0.001948570707868363</v>
+        <v>0.0006017530802720086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N11">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O11">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P11">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q11">
-        <v>3060.785335577923</v>
+        <v>4456.66005350827</v>
       </c>
       <c r="R11">
-        <v>27547.06802020131</v>
+        <v>40109.94048157443</v>
       </c>
       <c r="S11">
-        <v>0.009946714969103904</v>
+        <v>0.01084999597848928</v>
       </c>
       <c r="T11">
-        <v>0.01041569618048064</v>
+        <v>0.011244971657921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N12">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O12">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P12">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q12">
-        <v>6157.561844645646</v>
+        <v>1976.800784066525</v>
       </c>
       <c r="R12">
-        <v>55418.05660181081</v>
+        <v>17791.20705659872</v>
       </c>
       <c r="S12">
-        <v>0.02001039140556239</v>
+        <v>0.004812635538694995</v>
       </c>
       <c r="T12">
-        <v>0.02095386848625216</v>
+        <v>0.004987831363239254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P13">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q13">
-        <v>40452.1039062878</v>
+        <v>18446.19997468437</v>
       </c>
       <c r="R13">
-        <v>364068.9351565902</v>
+        <v>166015.7997721593</v>
       </c>
       <c r="S13">
-        <v>0.1314582707841047</v>
+        <v>0.04490833788998194</v>
       </c>
       <c r="T13">
-        <v>0.1376564436752874</v>
+        <v>0.04654314967289975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N14">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O14">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P14">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q14">
-        <v>46036.86140949247</v>
+        <v>25788.35361701858</v>
       </c>
       <c r="R14">
-        <v>414331.7526854322</v>
+        <v>232095.1825531673</v>
       </c>
       <c r="S14">
-        <v>0.149607204788146</v>
+        <v>0.06278323445743869</v>
       </c>
       <c r="T14">
-        <v>0.1566610882411423</v>
+        <v>0.06506875149688379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N15">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O15">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P15">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q15">
-        <v>16180.8682874218</v>
+        <v>3073.097559790921</v>
       </c>
       <c r="R15">
-        <v>97085.2097245308</v>
+        <v>18438.58535874553</v>
       </c>
       <c r="S15">
-        <v>0.05258339516227716</v>
+        <v>0.007481633278039483</v>
       </c>
       <c r="T15">
-        <v>0.03670844560907168</v>
+        <v>0.005169326288741276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N16">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O16">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P16">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q16">
-        <v>57661.07001321951</v>
+        <v>38284.68973381845</v>
       </c>
       <c r="R16">
-        <v>518949.6301189756</v>
+        <v>344562.2076043661</v>
       </c>
       <c r="S16">
-        <v>0.1873827025921587</v>
+        <v>0.09320628557312712</v>
       </c>
       <c r="T16">
-        <v>0.1962176764629979</v>
+        <v>0.096599302127653</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N17">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O17">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P17">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q17">
-        <v>445.6619003850173</v>
+        <v>659.3821737554687</v>
       </c>
       <c r="R17">
-        <v>2673.971402310104</v>
+        <v>3956.293042532812</v>
       </c>
       <c r="S17">
-        <v>0.001448279251795994</v>
+        <v>0.001605303937845228</v>
       </c>
       <c r="T17">
-        <v>0.001011043124492647</v>
+        <v>0.001109161534511587</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P18">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q18">
-        <v>2927.77595358214</v>
+        <v>6152.919168624799</v>
       </c>
       <c r="R18">
-        <v>17566.65572149284</v>
+        <v>36917.51501174879</v>
       </c>
       <c r="S18">
-        <v>0.009514470866405694</v>
+        <v>0.01497963664134446</v>
       </c>
       <c r="T18">
-        <v>0.006642048030955356</v>
+        <v>0.01034996325109712</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N19">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O19">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P19">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q19">
-        <v>3331.980361895461</v>
+        <v>8601.969810323675</v>
       </c>
       <c r="R19">
-        <v>19991.88217137277</v>
+        <v>51611.81886194205</v>
       </c>
       <c r="S19">
-        <v>0.01082802461093471</v>
+        <v>0.02094199169973215</v>
       </c>
       <c r="T19">
-        <v>0.007559039336610483</v>
+        <v>0.01446956623091727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N20">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O20">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P20">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q20">
-        <v>1171.112315684269</v>
+        <v>1025.06320589833</v>
       </c>
       <c r="R20">
-        <v>4684.449262737076</v>
+        <v>4100.25282359332</v>
       </c>
       <c r="S20">
-        <v>0.003805794632350196</v>
+        <v>0.002495575504561774</v>
       </c>
       <c r="T20">
-        <v>0.001771215733658662</v>
+        <v>0.001149521196941143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N21">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O21">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P21">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q21">
-        <v>4173.298245095218</v>
+        <v>12770.25087288176</v>
       </c>
       <c r="R21">
-        <v>25039.78947057131</v>
+        <v>76621.50523729056</v>
       </c>
       <c r="S21">
-        <v>0.01356207756307282</v>
+        <v>0.03108991238988364</v>
       </c>
       <c r="T21">
-        <v>0.0094676805298266</v>
+        <v>0.0214811252381783</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N22">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O22">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P22">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q22">
-        <v>4388.894329138801</v>
+        <v>6353.733384812682</v>
       </c>
       <c r="R22">
-        <v>39500.04896224922</v>
+        <v>57183.60046331413</v>
       </c>
       <c r="S22">
-        <v>0.01426270585330591</v>
+        <v>0.01546853043443214</v>
       </c>
       <c r="T22">
-        <v>0.01493518325809437</v>
+        <v>0.01603163601808977</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P23">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q23">
-        <v>28832.84227026016</v>
+        <v>59288.84566758587</v>
       </c>
       <c r="R23">
-        <v>259495.5804323415</v>
+        <v>533599.6110082729</v>
       </c>
       <c r="S23">
-        <v>0.09369884927172059</v>
+        <v>0.1443421147987689</v>
       </c>
       <c r="T23">
-        <v>0.09811668973186767</v>
+        <v>0.1495966443835064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N24">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O24">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P24">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q24">
-        <v>32813.46173521024</v>
+        <v>82887.6256203932</v>
       </c>
       <c r="R24">
-        <v>295321.1556168921</v>
+        <v>745988.6305835388</v>
       </c>
       <c r="S24">
-        <v>0.1066347735125002</v>
+        <v>0.2017947058671977</v>
       </c>
       <c r="T24">
-        <v>0.1116625344780164</v>
+        <v>0.2091406994706643</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N25">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O25">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P25">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q25">
-        <v>11533.15595668114</v>
+        <v>9877.395192176771</v>
       </c>
       <c r="R25">
-        <v>69198.93574008682</v>
+        <v>59264.37115306062</v>
       </c>
       <c r="S25">
-        <v>0.03747960161135239</v>
+        <v>0.02404708836356131</v>
       </c>
       <c r="T25">
-        <v>0.02616449380938802</v>
+        <v>0.01661498785436539</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N26">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O26">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P26">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q26">
-        <v>41098.7903293496</v>
+        <v>123052.7189434641</v>
       </c>
       <c r="R26">
-        <v>369889.1129641464</v>
+        <v>1107474.470491177</v>
       </c>
       <c r="S26">
-        <v>0.1335598247381883</v>
+        <v>0.299578942447664</v>
       </c>
       <c r="T26">
-        <v>0.1398570845462296</v>
+        <v>0.3104846051383499</v>
       </c>
     </row>
   </sheetData>
